--- a/exeldata.xlsx
+++ b/exeldata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ac4666dbaa6441e/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0EB5DA4-93FF-4E96-8E66-267B03659E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14130"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">ELECTRICAL ACCOUNT NUM </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>PROFILE IMAGE FILE</t>
   </si>
@@ -44,12 +42,6 @@
     <t>FULL NAME</t>
   </si>
   <si>
-    <t>WATER ACCOUNT NUM</t>
-  </si>
-  <si>
-    <t>GAS ACCOUNT NUMBER</t>
-  </si>
-  <si>
     <t>CAR FUEL TYPE</t>
   </si>
   <si>
@@ -59,24 +51,24 @@
     <t>DISTANCE</t>
   </si>
   <si>
-    <t>Richard Feynman</t>
-  </si>
-  <si>
-    <t>richfey</t>
-  </si>
-  <si>
-    <t>Feymandiagram123</t>
+    <t>GAS ACCOUNT PAYMENT</t>
+  </si>
+  <si>
+    <t>WATER ACCOUNT PAYMENT</t>
+  </si>
+  <si>
+    <t>ELECTRICAL ACCOUNT PAYMENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -85,7 +77,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -112,13 +104,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -395,71 +388,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>213456987</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="richfey@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>